--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611571520" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611571520" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611571520" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611571520"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611576439" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611576439" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611576439" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611576439"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>Project Name</t>
   </si>
@@ -57,22 +57,19 @@
     <t>Defnir a Área de Actividade</t>
   </si>
   <si>
-    <t>Check LOGIN functionality</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Def_Area_Act_001</t>
-  </si>
-  <si>
-    <t>TC_Login_002</t>
-  </si>
-  <si>
-    <t>TC_Login_003</t>
-  </si>
-  <si>
-    <t>TC_Login_004</t>
+    <t>TC_Def_Area_Act_001</t>
+  </si>
+  <si>
+    <t>TC_Def_Area_Act_002</t>
+  </si>
+  <si>
+    <t>TC_Def_Area_Act_003</t>
+  </si>
+  <si>
+    <t>TC_Def_Area_Act_004</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -80,18 +77,6 @@
   <si>
     <t xml:space="preserve">Valid User
 Valid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid User
-Invalid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Valid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Invalid Password </t>
   </si>
   <si>
     <t>Test Case Steps</t>
@@ -128,15 +113,15 @@
   </si>
   <si>
     <t>username: a@b.pt
-password: xxxx</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: xxxx</t>
+password: 1235</t>
+  </si>
+  <si>
+    <t>username: a@b.pt
+password: 1236</t>
+  </si>
+  <si>
+    <t>username: a@b.pt
+password: 1237</t>
   </si>
   <si>
     <t>Post Conditions</t>
@@ -294,7 +279,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611571520" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611576439" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -309,7 +294,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611571520" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611576439" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -331,7 +316,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611571520" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611576439" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -342,7 +327,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611571520" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611576439" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -364,7 +349,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611571520"/>
+          <pm:border xmlns:pm="smNativeData" id="1611576439"/>
         </ext>
       </extLst>
     </border>
@@ -383,7 +368,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611571520">
+          <pm:border xmlns:pm="smNativeData" id="1611576439">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -407,7 +392,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611571520"/>
+          <pm:border xmlns:pm="smNativeData" id="1611576439"/>
         </ext>
       </extLst>
     </border>
@@ -447,10 +432,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611571520" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611576439" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611571520" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611576439" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -717,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -790,177 +775,177 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611571520" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611576439" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -969,16 +954,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611571520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611576439" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1061,180 +1046,180 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611571520" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611576439" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1243,16 +1228,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611571520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611576439" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1335,21 +1320,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1357,7 +1342,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1365,7 +1350,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1373,7 +1358,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1381,7 +1366,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1389,7 +1374,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1397,7 +1382,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1405,12 +1390,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1418,24 +1403,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611571520" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611576439" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1444,16 +1429,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611571520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611576439" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611576439" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611576439" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611576439" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611576439"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611577341" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611577341" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611577341" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611577341"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>Project Name</t>
   </si>
@@ -82,27 +82,251 @@
     <t>Test Case Steps</t>
   </si>
   <si>
-    <t>1. Enter valid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter valid username
-2. Enter invalid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter invalid password
-3. Click login button</t>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O administrativo inicia a definição de uma nova área de atividade.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema solicita os dados necessários (código único e descrição breve e detalhada).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O administrativo introduz os dados solicitados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema valida e apresenta os dados ao administrativo, pedindo que os confirme.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O administrativo confirma.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O sistema regista os dados e informa o administrativo do sucesso da operação.</t>
+    </r>
   </si>
   <si>
     <t>Preconditions</t>
+  </si>
+  <si>
+    <t>O administrativo tem de estar registado na plataforma</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -127,16 +351,13 @@
     <t>Post Conditions</t>
   </si>
   <si>
-    <t>The user should be able to see the homepage</t>
+    <t>A informação da área de atividade é registada no sistema.</t>
   </si>
   <si>
     <t>Error message "invalid user or password"</t>
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Successful login</t>
   </si>
   <si>
     <t>Popup Message: Invalid username or password</t>
@@ -271,7 +492,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -279,7 +500,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611576439" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -294,10 +515,41 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611576439" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Arial" sz="220" lang="default"/>
+            <pm:ea face="Arial" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Arial" sz="220" lang="default"/>
+            <pm:ea face="Arial" sz="220" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -316,7 +568,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611576439" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611577341" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -327,7 +579,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611576439" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611577341" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -349,7 +601,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611576439"/>
+          <pm:border xmlns:pm="smNativeData" id="1611577341"/>
         </ext>
       </extLst>
     </border>
@@ -368,7 +620,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611576439">
+          <pm:border xmlns:pm="smNativeData" id="1611577341">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -392,7 +644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611576439"/>
+          <pm:border xmlns:pm="smNativeData" id="1611577341"/>
         </ext>
       </extLst>
     </border>
@@ -406,7 +658,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -419,6 +671,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -432,10 +690,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611576439" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611577341" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611576439" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611577341" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -703,7 +961,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -822,130 +1080,124 @@
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611576439" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -954,16 +1206,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611576439" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1046,16 +1298,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1063,16 +1315,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1080,16 +1332,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1097,129 +1349,129 @@
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611576439" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1228,16 +1480,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611576439" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1320,16 +1572,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1358,7 +1610,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1366,7 +1618,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1374,7 +1626,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1382,7 +1634,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1390,12 +1642,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1403,24 +1655,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611576439" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1429,16 +1681,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611576439" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611576439" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611576439" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -15,17 +15,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611571520" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611571520" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611571520" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611571520"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611577341" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611577341" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611577341" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611577341"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>Project Name</t>
   </si>
@@ -57,22 +57,19 @@
     <t>Defnir a Área de Actividade</t>
   </si>
   <si>
-    <t>Check LOGIN functionality</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Def_Area_Act_001</t>
-  </si>
-  <si>
-    <t>TC_Login_002</t>
-  </si>
-  <si>
-    <t>TC_Login_003</t>
-  </si>
-  <si>
-    <t>TC_Login_004</t>
+    <t>TC_Def_Area_Act_001</t>
+  </si>
+  <si>
+    <t>TC_Def_Area_Act_002</t>
+  </si>
+  <si>
+    <t>TC_Def_Area_Act_003</t>
+  </si>
+  <si>
+    <t>TC_Def_Area_Act_004</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -82,42 +79,254 @@
 Valid Password </t>
   </si>
   <si>
-    <t xml:space="preserve">Valid User
-Invalid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Valid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Invalid Password </t>
-  </si>
-  <si>
     <t>Test Case Steps</t>
   </si>
   <si>
-    <t>1. Enter valid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter valid username
-2. Enter invalid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter invalid password
-3. Click login button</t>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O administrativo inicia a definição de uma nova área de atividade.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema solicita os dados necessários (código único e descrição breve e detalhada).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O administrativo introduz os dados solicitados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O sistema valida e apresenta os dados ao administrativo, pedindo que os confirme.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">O administrativo confirma.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="single"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <family val="2"/>
+        <sz val="11"/>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
+              <pm:cs/>
+              <pm:ea/>
+            </pm:charSpec>
+          </ext>
+        </extLst>
+      </rPr>
+      <t>O sistema regista os dados e informa o administrativo do sucesso da operação.</t>
+    </r>
   </si>
   <si>
     <t>Preconditions</t>
+  </si>
+  <si>
+    <t>O administrativo tem de estar registado na plataforma</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -128,30 +337,27 @@
   </si>
   <si>
     <t>username: a@b.pt
-password: xxxx</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: xxxx</t>
+password: 1235</t>
+  </si>
+  <si>
+    <t>username: a@b.pt
+password: 1236</t>
+  </si>
+  <si>
+    <t>username: a@b.pt
+password: 1237</t>
   </si>
   <si>
     <t>Post Conditions</t>
   </si>
   <si>
-    <t>The user should be able to see the homepage</t>
+    <t>A informação da área de atividade é registada no sistema.</t>
   </si>
   <si>
     <t>Error message "invalid user or password"</t>
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Successful login</t>
   </si>
   <si>
     <t>Popup Message: Invalid username or password</t>
@@ -286,7 +492,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -294,7 +500,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611571520" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -309,10 +515,41 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611571520" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Arial" sz="220" lang="default"/>
+            <pm:ea face="Arial" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Arial" sz="220" lang="default"/>
+            <pm:ea face="Arial" sz="220" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -331,7 +568,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611571520" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611577341" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -342,7 +579,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611571520" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611577341" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -364,7 +601,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611571520"/>
+          <pm:border xmlns:pm="smNativeData" id="1611577341"/>
         </ext>
       </extLst>
     </border>
@@ -383,7 +620,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611571520">
+          <pm:border xmlns:pm="smNativeData" id="1611577341">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -407,7 +644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611571520"/>
+          <pm:border xmlns:pm="smNativeData" id="1611577341"/>
         </ext>
       </extLst>
     </border>
@@ -421,7 +658,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -434,6 +671,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -447,10 +690,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611571520" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611577341" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611571520" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611577341" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -717,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -790,177 +1033,171 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611571520" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -969,16 +1206,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611571520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1061,180 +1298,180 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611571520" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1243,16 +1480,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611571520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1335,21 +1572,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1357,7 +1594,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1365,7 +1602,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1373,7 +1610,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1381,7 +1618,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1389,7 +1626,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1397,7 +1634,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1405,12 +1642,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1418,24 +1655,24 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611571520" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1444,16 +1681,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611571520" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611571520" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611571520" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -8,26 +8,27 @@
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId4"/>
-    <sheet name="Mover ficheiro" sheetId="2" r:id="rId5"/>
-    <sheet name="Cancelar encomenda" sheetId="3" r:id="rId6"/>
+    <sheet name="UC02_Definir_Area_Atividade" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611577341" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611577341" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611577341" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611577341"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611935102" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611935102" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611935102" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611935102"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Project Name</t>
+  </si>
+  <si>
+    <t>T4J - Tasks for Joe</t>
   </si>
   <si>
     <t>Module Name</t>
@@ -96,7 +97,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -118,7 +119,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -139,7 +140,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -161,7 +162,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -182,7 +183,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -204,7 +205,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -225,7 +226,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -247,7 +248,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -268,7 +269,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -290,7 +291,7 @@
         <u val="single"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -311,7 +312,7 @@
         <u val="none"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
               <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
               <pm:cs/>
               <pm:ea/>
@@ -360,7 +361,7 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Popup Message: Invalid username or password</t>
+    <t>É lançada uma exceção</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -382,95 +383,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Mover ficheiro de uma pasta para outra</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_001</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_002</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_003</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_004</t>
-  </si>
-  <si>
-    <t>Mover o ficheiro enquanto este está aberto</t>
-  </si>
-  <si>
-    <t>Não ter privilégios de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t>A capacidade de espaço livre no destino é excedida</t>
-  </si>
-  <si>
-    <t>Já existe um ficheiro com esse nome na pasta destino</t>
-  </si>
-  <si>
-    <t>1. Editar ficheiro
-2. Mover ficheiro</t>
-  </si>
-  <si>
-    <t>1. Mover ficheiro</t>
-  </si>
-  <si>
-    <t>Ficheiro em edição</t>
-  </si>
-  <si>
-    <t>Retirar permissões de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t>Definir quota máxima para X MB</t>
-  </si>
-  <si>
-    <t>Copiar ficheiro para c:\test</t>
-  </si>
-  <si>
-    <t>Ficheiro: c:\test.txt
-Pasta destino: c:\dest</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t>Popup Message: "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t>Falha</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que já foi cancelada</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que existe e não foi ainda cncelada</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que não existe</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que não é reembolsável</t>
   </si>
 </sst>
 </file>
@@ -492,7 +404,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -500,7 +412,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -515,7 +427,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -530,7 +442,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -546,7 +458,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611577341" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -554,8 +466,23 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default"/>
+            <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,24 +495,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611577341" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611577341" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611935102" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -601,7 +517,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611577341"/>
+          <pm:border xmlns:pm="smNativeData" id="1611935102"/>
         </ext>
       </extLst>
     </border>
@@ -620,31 +536,12 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611577341">
+          <pm:border xmlns:pm="smNativeData" id="1611935102">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611577341"/>
         </ext>
       </extLst>
     </border>
@@ -666,16 +563,18 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -690,10 +589,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611577341" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611935102" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611577341" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611935102" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -960,244 +859,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="7"/>
-    <col min="2" max="2" width="23.991803" customWidth="1" style="8"/>
-    <col min="3" max="5" width="23.991803" customWidth="1" style="7"/>
-    <col min="6" max="1025" width="10.827869" customWidth="1" style="7"/>
+    <col min="1" max="1" width="23.745902" customWidth="1" style="0"/>
+    <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
+    <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
+    <col min="6" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7"/>
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>34</v>
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>35</v>
+      <c r="A19" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
+      <c r="A20" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
+      <c r="A21" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611935102" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1206,491 +1107,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611935102" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611935102" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611935102" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611935102" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.60"/>
-  <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="7"/>
-    <col min="2" max="2" width="23.991803" customWidth="1" style="8"/>
-    <col min="3" max="5" width="23.991803" customWidth="1" style="7"/>
-    <col min="6" max="1025" width="10.827869" customWidth="1" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" cellComments="asDisplayed"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
-        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
-      </pm:sheetPrefs>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.60"/>
-  <cols>
-    <col min="1" max="1" width="23.745902" customWidth="1" style="7"/>
-    <col min="2" max="2" width="23.991803" customWidth="1" style="8"/>
-    <col min="3" max="5" width="23.991803" customWidth="1" style="7"/>
-    <col min="6" max="1025" width="10.827869" customWidth="1" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611577341" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.700000" right="0.700000" top="0.750000" bottom="0.750000" header="0.511806" footer="0.511806"/>
-  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" cellComments="asDisplayed"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611577341" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611577341" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
-  <extLst>
-    <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611577341" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611935102" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611935102" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611935102" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611935102" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611935102"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611935627" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611935627" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611935627" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611935627"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Project Name</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>TS_001</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>TS_004</t>
   </si>
   <si>
     <t>Test Scenario Description</t>
@@ -78,6 +87,10 @@
   <si>
     <t xml:space="preserve">Valid User
 Valid Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid User
+Invalid Password </t>
   </si>
   <si>
     <t>Test Case Steps</t>
@@ -87,240 +100,12 @@
       <t xml:space="preserve">1. </t>
     </r>
     <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O administrativo inicia a definição de uma nova área de atividade.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema solicita os dados necessários (código único e descrição breve e detalhada).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O administrativo introduz os dados solicitados.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O sistema valida e apresenta os dados ao administrativo, pedindo que os confirme.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">O administrativo confirma.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="single"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-        <family val="2"/>
-        <sz val="11"/>
-        <b val="0"/>
-        <i val="0"/>
-        <u val="none"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
-              <pm:latin face="Calibri" sz="220" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
-      </rPr>
-      <t>O sistema regista os dados e informa o administrativo do sucesso da operação.</t>
+      <t>O administrativo inicia a definição de uma nova área de atividade.
+2. O sistema solicita os dados necessários (código único e descrição breve e detalhada).
+3. O administrativo introduz os dados solicitados.
+4. O sistema valida e apresenta os dados ao administrativo, pedindo que os confirme.
+5. O administrativo confirma.
+6. O sistema regista os dados e informa o administrativo do sucesso da operação.</t>
     </r>
   </si>
   <si>
@@ -412,7 +197,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -427,7 +212,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -442,7 +227,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -458,7 +243,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -473,7 +258,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935102" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -482,7 +267,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,13 +280,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611935102" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611935627" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1611935627" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -517,7 +313,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611935102"/>
+          <pm:border xmlns:pm="smNativeData" id="1611935627"/>
         </ext>
       </extLst>
     </border>
@@ -536,12 +332,31 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611935102">
+          <pm:border xmlns:pm="smNativeData" id="1611935627">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
           </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1611935627"/>
         </ext>
       </extLst>
     </border>
@@ -555,7 +370,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -567,9 +382,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,10 +401,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611935102" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611935627" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611935102" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611935627" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -860,7 +672,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -875,7 +687,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -917,72 +729,72 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -990,115 +802,115 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611935102" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611935627" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1107,16 +919,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611935102" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611935102" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611935102" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611935102" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611935627" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611935627" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611935627" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611935627" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611935102" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611935627" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611935627" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611935627" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611935627" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611935627"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611940580" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611940580" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611940580" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611940580"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Project Name</t>
   </si>
@@ -109,10 +109,22 @@
     </r>
   </si>
   <si>
+    <t>1. O administrativo solicita o cancelamento da definição da área de atividade.
+2.O caso de uso termina.</t>
+  </si>
+  <si>
+    <t>1. O sistema informa que existem dados obrigatórios em falta  e informa quais são.
+2. O administrativo não insere os dados pedidos. 
+3. O caso de uso termina.</t>
+  </si>
+  <si>
     <t>Preconditions</t>
   </si>
   <si>
     <t>O administrativo tem de estar registado na plataforma</t>
+  </si>
+  <si>
+    <t>O administrativo pode ou não estar registado na plataforma</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -189,7 +201,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -197,7 +209,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -212,7 +224,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -227,7 +239,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -243,7 +255,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -258,7 +270,22 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611935627" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Times New Roman" sz="240" lang="default"/>
+            <pm:ea face="SimSun" sz="240" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -280,7 +307,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611935627" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611940580" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -291,7 +318,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611935627" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611940580" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -313,7 +340,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611935627"/>
+          <pm:border xmlns:pm="smNativeData" id="1611940580"/>
         </ext>
       </extLst>
     </border>
@@ -332,7 +359,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611935627">
+          <pm:border xmlns:pm="smNativeData" id="1611940580">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -356,7 +383,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611935627"/>
+          <pm:border xmlns:pm="smNativeData" id="1611940580"/>
         </ext>
       </extLst>
     </border>
@@ -370,7 +397,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
@@ -378,15 +405,22 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -401,10 +435,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611935627" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611940580" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611935627" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611940580" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -678,16 +712,16 @@
   <sheetFormatPr defaultRowHeight="16.60"/>
   <cols>
     <col min="1" max="1" width="23.745902" customWidth="1" style="0"/>
-    <col min="2" max="2" width="23.991803" customWidth="1" style="7"/>
-    <col min="3" max="5" width="23.991803" customWidth="1" style="0"/>
+    <col min="2" max="2" width="23.991803" customWidth="1" style="10"/>
+    <col min="3" max="5" width="23.991803" customWidth="1" style="11"/>
     <col min="6" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -695,46 +729,46 @@
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -742,16 +776,16 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -759,16 +793,16 @@
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -776,16 +810,16 @@
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -793,124 +827,128 @@
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>35</v>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611935627" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611940580" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -919,16 +957,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611935627" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611935627" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611935627" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611935627" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611940580" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611940580" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611940580" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611940580" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611935627" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611940580" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611940580" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611940580" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611940580" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611940580"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611940709" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611940709" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611940709" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611940709"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Project Name</t>
   </si>
@@ -87,10 +87,6 @@
   <si>
     <t xml:space="preserve">Valid User
 Valid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid User
-Invalid Password </t>
   </si>
   <si>
     <t>Test Case Steps</t>
@@ -132,18 +128,6 @@
   <si>
     <t>username: a@b.pt
 password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.pt
-password: 1235</t>
-  </si>
-  <si>
-    <t>username: a@b.pt
-password: 1236</t>
-  </si>
-  <si>
-    <t>username: a@b.pt
-password: 1237</t>
   </si>
   <si>
     <t>Post Conditions</t>
@@ -209,7 +193,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -224,7 +208,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -239,7 +223,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -255,7 +239,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -270,7 +254,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -285,7 +269,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940580" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -307,7 +291,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611940580" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611940709" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -318,7 +302,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611940580" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611940709" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -340,7 +324,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611940580"/>
+          <pm:border xmlns:pm="smNativeData" id="1611940709"/>
         </ext>
       </extLst>
     </border>
@@ -359,7 +343,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611940580">
+          <pm:border xmlns:pm="smNativeData" id="1611940709">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -383,7 +367,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611940580"/>
+          <pm:border xmlns:pm="smNativeData" id="1611940709"/>
         </ext>
       </extLst>
     </border>
@@ -435,10 +419,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611940580" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611940709" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611940580" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611940709" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -717,7 +701,7 @@
     <col min="6" max="1025" width="10.827869" customWidth="1" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -814,7 +798,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>20</v>
@@ -825,130 +809,130 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611940580" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611940709" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -957,16 +941,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611940580" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611940580" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611940580" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611940580" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611940709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611940709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611940709" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611940709" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611940580" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611940709" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -13,10 +13,10 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611940709" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611940709" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611940709" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611940709"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611941326" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611941326" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611941326" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611941326"/>
     </ext>
   </extLst>
 </workbook>
@@ -106,7 +106,7 @@
   </si>
   <si>
     <t>1. O administrativo solicita o cancelamento da definição da área de atividade.
-2.O caso de uso termina.</t>
+2. O caso de uso termina.</t>
   </si>
   <si>
     <t>1. O sistema informa que existem dados obrigatórios em falta  e informa quais são.
@@ -193,7 +193,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -208,7 +208,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -223,7 +223,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -239,7 +239,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -254,7 +254,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -269,7 +269,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611940709" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -291,7 +291,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611940709" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611941326" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -302,7 +302,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611940709" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611941326" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -324,7 +324,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611940709"/>
+          <pm:border xmlns:pm="smNativeData" id="1611941326"/>
         </ext>
       </extLst>
     </border>
@@ -343,7 +343,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611940709">
+          <pm:border xmlns:pm="smNativeData" id="1611941326">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -367,7 +367,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611940709"/>
+          <pm:border xmlns:pm="smNativeData" id="1611941326"/>
         </ext>
       </extLst>
     </border>
@@ -419,10 +419,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611940709" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611941326" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611940709" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611941326" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -690,7 +690,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -932,7 +932,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611940709" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611941326" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -941,16 +941,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611940709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611940709" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611940709" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611940709" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611941326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611941326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611941326" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611941326" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611940709" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611941326" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Testes/UC02_Test_Scenario.xlsx
+++ b/Testes/UC02_Test_Scenario.xlsx
@@ -13,17 +13,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1611941326" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1611941326" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1611941326" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1611941326"/>
+      <pm:revision xmlns:pm="smNativeData" day="1611944884" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1611944884" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1611944884" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1611944884"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Project Name</t>
   </si>
@@ -114,13 +114,18 @@
 3. O caso de uso termina.</t>
   </si>
   <si>
+    <t>1. O sistema deteta que os dados (ou algum subconjunto dos dados) introduzidos devem ser únicos e que já existem no sistema e alerta o utilizador para o facto, permitindo a sua alteração.
+2. O administrativo não altera os dados. 
+3. O caso de uso termina.</t>
+  </si>
+  <si>
     <t>Preconditions</t>
   </si>
   <si>
-    <t>O administrativo tem de estar registado na plataforma</t>
-  </si>
-  <si>
-    <t>O administrativo pode ou não estar registado na plataforma</t>
+    <t>O utilizador tem de estar registado na plataforma</t>
+  </si>
+  <si>
+    <t>O utilizador pode ou não estar registado na plataforma</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -193,7 +198,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611944884" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -208,7 +213,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611944884" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -223,7 +228,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611944884" ulstyle="none">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -239,7 +244,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="single">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611944884" ulstyle="single">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Arial" sz="220" lang="default"/>
             <pm:ea face="Arial" sz="220" lang="default"/>
@@ -254,7 +259,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611944884" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -269,7 +274,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1611941326" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1611944884" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -291,7 +296,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611941326" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611944884" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -302,7 +307,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1611941326" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1611944884" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -324,7 +329,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611941326"/>
+          <pm:border xmlns:pm="smNativeData" id="1611944884"/>
         </ext>
       </extLst>
     </border>
@@ -343,7 +348,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611941326">
+          <pm:border xmlns:pm="smNativeData" id="1611944884">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -367,7 +372,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1611941326"/>
+          <pm:border xmlns:pm="smNativeData" id="1611944884"/>
         </ext>
       </extLst>
     </border>
@@ -419,10 +424,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1611941326" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1611944884" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1611941326" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1611944884" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -690,7 +695,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -820,119 +825,121 @@
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1611941326" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1611944884" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -941,16 +948,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1611941326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1611941326" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611941326" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1611941326" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1611944884" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1611944884" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611944884" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1611944884" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611941326" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1611944884" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
